--- a/biology/Botanique/Forêt_provinciale_de_Fort_à_La_Corne/Forêt_provinciale_de_Fort_à_La_Corne.xlsx
+++ b/biology/Botanique/Forêt_provinciale_de_Fort_à_La_Corne/Forêt_provinciale_de_Fort_à_La_Corne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_provinciale_de_Fort_%C3%A0_La_Corne</t>
+          <t>Forêt_provinciale_de_Fort_à_La_Corne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt provinciale de Fort à La Corne est une forêt mixte inscrite dans une zone forestière protégée, située dans la province de la Saskatchewan au Canada.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_provinciale_de_Fort_%C3%A0_La_Corne</t>
+          <t>Forêt_provinciale_de_Fort_à_La_Corne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.environment.gov.sk.ca/Default.aspx?DN=47802996-b004-4c98-860c-e4bffa9cca8d
  Portail de la Saskatchewan   Portail du bois et de la forêt   Portail de la conservation de la nature                   </t>
